--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna1-Epha1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H2">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I2">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J2">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N2">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q2">
-        <v>109.3729781248116</v>
+        <v>182.6775878109707</v>
       </c>
       <c r="R2">
-        <v>984.3568031233041</v>
+        <v>1644.098290298736</v>
       </c>
       <c r="S2">
-        <v>0.2465804109969213</v>
+        <v>0.2538263433625885</v>
       </c>
       <c r="T2">
-        <v>0.2465804109969213</v>
+        <v>0.2538263433625885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H3">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I3">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J3">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.553807</v>
       </c>
       <c r="O3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q3">
-        <v>108.661987630653</v>
+        <v>186.215184810288</v>
       </c>
       <c r="R3">
-        <v>977.957888675877</v>
+        <v>1675.936663292592</v>
       </c>
       <c r="S3">
-        <v>0.2449774892216318</v>
+        <v>0.2587417537387992</v>
       </c>
       <c r="T3">
-        <v>0.2449774892216318</v>
+        <v>0.2587417537387992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H4">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I4">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J4">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N4">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q4">
-        <v>114.0901264766285</v>
+        <v>215.134877973472</v>
       </c>
       <c r="R4">
-        <v>1026.811138289656</v>
+        <v>1936.213901761248</v>
       </c>
       <c r="S4">
-        <v>0.2572151801992111</v>
+        <v>0.2989250080435082</v>
       </c>
       <c r="T4">
-        <v>0.2572151801992111</v>
+        <v>0.2989250080435082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>18.57067033333334</v>
+        <v>31.824752</v>
       </c>
       <c r="H5">
-        <v>55.712011</v>
+        <v>95.47425600000001</v>
       </c>
       <c r="I5">
-        <v>0.834164862818447</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="J5">
-        <v>0.8341648628184472</v>
+        <v>0.886907633630525</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N5">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q5">
-        <v>37.87629970600211</v>
+        <v>54.27547025714667</v>
       </c>
       <c r="R5">
-        <v>340.886697354019</v>
+        <v>488.47923231432</v>
       </c>
       <c r="S5">
-        <v>0.08539178240068299</v>
+        <v>0.07541452848562916</v>
       </c>
       <c r="T5">
-        <v>0.085391782400683</v>
+        <v>0.07541452848562916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J6">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N6">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q6">
-        <v>13.74102011522933</v>
+        <v>13.39234900057567</v>
       </c>
       <c r="R6">
-        <v>123.669181037064</v>
+        <v>120.531141005181</v>
       </c>
       <c r="S6">
-        <v>0.0309790082122814</v>
+        <v>0.01860836360161086</v>
       </c>
       <c r="T6">
-        <v>0.03097900821228141</v>
+        <v>0.01860836360161086</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J7">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>17.553807</v>
       </c>
       <c r="O7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q7">
         <v>13.651695175473</v>
@@ -883,10 +883,10 @@
         <v>122.865256579257</v>
       </c>
       <c r="S7">
-        <v>0.03077762592631806</v>
+        <v>0.01896871919874838</v>
       </c>
       <c r="T7">
-        <v>0.03077762592631807</v>
+        <v>0.01896871919874838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J8">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N8">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q8">
-        <v>14.33365671981067</v>
+        <v>15.771838256362</v>
       </c>
       <c r="R8">
-        <v>129.002910478296</v>
+        <v>141.946544307258</v>
       </c>
       <c r="S8">
-        <v>0.03231510219120484</v>
+        <v>0.02191460967210195</v>
       </c>
       <c r="T8">
-        <v>0.03231510219120484</v>
+        <v>0.02191460967210195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.999351000000001</v>
       </c>
       <c r="I9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="J9">
-        <v>0.1047998907584427</v>
+        <v>0.06502043684278042</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N9">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q9">
-        <v>4.758570216097667</v>
+        <v>3.979010499121667</v>
       </c>
       <c r="R9">
-        <v>42.82713194487901</v>
+        <v>35.811094492095</v>
       </c>
       <c r="S9">
-        <v>0.01072815442863843</v>
+        <v>0.005528744370319229</v>
       </c>
       <c r="T9">
-        <v>0.01072815442863843</v>
+        <v>0.005528744370319229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H10">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I10">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J10">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N10">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q10">
-        <v>7.30519551093511</v>
+        <v>9.738602310209336</v>
       </c>
       <c r="R10">
-        <v>65.74675959841599</v>
+        <v>87.64742079188402</v>
       </c>
       <c r="S10">
-        <v>0.01646949861275296</v>
+        <v>0.01353156587780629</v>
       </c>
       <c r="T10">
-        <v>0.01646949861275296</v>
+        <v>0.01353156587780628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H11">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I11">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J11">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>17.553807</v>
       </c>
       <c r="O11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q11">
-        <v>7.257707322761998</v>
+        <v>9.927192770172001</v>
       </c>
       <c r="R11">
-        <v>65.31936590485799</v>
+        <v>89.344734931548</v>
       </c>
       <c r="S11">
-        <v>0.01636243691288901</v>
+        <v>0.01379360802221497</v>
       </c>
       <c r="T11">
-        <v>0.01636243691288901</v>
+        <v>0.01379360802221497</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H12">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I12">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J12">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N12">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q12">
-        <v>7.620261366824889</v>
+        <v>11.468911127768</v>
       </c>
       <c r="R12">
-        <v>68.582352301424</v>
+        <v>103.220200149912</v>
       </c>
       <c r="S12">
-        <v>0.01717981179584781</v>
+        <v>0.0159357905301672</v>
       </c>
       <c r="T12">
-        <v>0.01717981179584781</v>
+        <v>0.0159357905301672</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.240364666666667</v>
+        <v>1.696588</v>
       </c>
       <c r="H13">
-        <v>3.721094</v>
+        <v>5.089764000000001</v>
       </c>
       <c r="I13">
-        <v>0.05571520055243645</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="J13">
-        <v>0.05571520055243646</v>
+        <v>0.04728133775640876</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N13">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q13">
-        <v>2.529818418836222</v>
+        <v>2.893443176953333</v>
       </c>
       <c r="R13">
-        <v>22.768365769526</v>
+        <v>26.04098859258</v>
       </c>
       <c r="S13">
-        <v>0.00570345323094668</v>
+        <v>0.004020373326220314</v>
       </c>
       <c r="T13">
-        <v>0.005703453230946682</v>
+        <v>0.004020373326220314</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H14">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I14">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J14">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N14">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O14">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P14">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q14">
-        <v>0.6975470756106665</v>
+        <v>0.1628392766762222</v>
       </c>
       <c r="R14">
-        <v>6.277923680495999</v>
+        <v>1.465553490086</v>
       </c>
       <c r="S14">
-        <v>0.001572613707176359</v>
+        <v>0.0002262614623382502</v>
       </c>
       <c r="T14">
-        <v>0.001572613707176359</v>
+        <v>0.0002262614623382502</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H15">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I15">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J15">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>17.553807</v>
       </c>
       <c r="O15">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P15">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q15">
-        <v>0.6930125978219999</v>
+        <v>0.165992699838</v>
       </c>
       <c r="R15">
-        <v>6.237113380397999</v>
+        <v>1.493934298542</v>
       </c>
       <c r="S15">
-        <v>0.001562390767141665</v>
+        <v>0.0002306430719260513</v>
       </c>
       <c r="T15">
-        <v>0.001562390767141665</v>
+        <v>0.0002306430719260513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H16">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I16">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J16">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N16">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O16">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P16">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q16">
-        <v>0.7276315909493334</v>
+        <v>0.1917717895053334</v>
       </c>
       <c r="R16">
-        <v>6.548684318544</v>
+        <v>1.725946105548</v>
       </c>
       <c r="S16">
-        <v>0.001640438980694889</v>
+        <v>0.0002664625292764869</v>
       </c>
       <c r="T16">
-        <v>0.00164043898069489</v>
+        <v>0.0002664625292764869</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.118438</v>
+        <v>0.02836866666666667</v>
       </c>
       <c r="H17">
-        <v>0.355314</v>
+        <v>0.085106</v>
       </c>
       <c r="I17">
-        <v>0.005320045870673626</v>
+        <v>0.0007905917702857979</v>
       </c>
       <c r="J17">
-        <v>0.005320045870673627</v>
+        <v>0.0007905917702857978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N17">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O17">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P17">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q17">
-        <v>0.2415633417673333</v>
+        <v>0.04838129528555556</v>
       </c>
       <c r="R17">
-        <v>2.174070075906</v>
+        <v>0.43543165757</v>
       </c>
       <c r="S17">
-        <v>0.000544602415660714</v>
+        <v>6.72247067450094E-05</v>
       </c>
       <c r="T17">
-        <v>0.000544602415660714</v>
+        <v>6.722470674500939E-05</v>
       </c>
     </row>
   </sheetData>
